--- a/team_specific_matrix/Vermont_A.xlsx
+++ b/team_specific_matrix/Vermont_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2021276595744681</v>
+        <v>0.2033898305084746</v>
       </c>
       <c r="C2">
-        <v>0.5691489361702128</v>
+        <v>0.559322033898305</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01063829787234043</v>
+        <v>0.008474576271186441</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1436170212765958</v>
+        <v>0.1483050847457627</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.07446808510638298</v>
+        <v>0.08050847457627118</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.009174311926605505</v>
+        <v>0.007407407407407408</v>
       </c>
       <c r="C3">
-        <v>0.02752293577981652</v>
+        <v>0.02962962962962963</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04587155963302753</v>
+        <v>0.04444444444444445</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7247706422018348</v>
+        <v>0.7481481481481481</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1926605504587156</v>
+        <v>0.1703703703703704</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.07407407407407407</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6666666666666666</v>
+        <v>0.6764705882352942</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2592592592592592</v>
+        <v>0.2647058823529412</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05421686746987952</v>
+        <v>0.0505050505050505</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01204819277108434</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="E6">
-        <v>0.006024096385542169</v>
+        <v>0.005050505050505051</v>
       </c>
       <c r="F6">
-        <v>0.04216867469879518</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2228915662650602</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01807228915662651</v>
+        <v>0.01515151515151515</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1626506024096386</v>
+        <v>0.1717171717171717</v>
       </c>
       <c r="R6">
-        <v>0.108433734939759</v>
+        <v>0.101010101010101</v>
       </c>
       <c r="S6">
-        <v>0.3734939759036144</v>
+        <v>0.3686868686868687</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.06557377049180328</v>
+        <v>0.07042253521126761</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01639344262295082</v>
+        <v>0.01408450704225352</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.04918032786885246</v>
+        <v>0.04225352112676056</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.07377049180327869</v>
+        <v>0.09154929577464789</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -838,13 +838,13 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.180327868852459</v>
+        <v>0.1690140845070423</v>
       </c>
       <c r="R7">
-        <v>0.09836065573770492</v>
+        <v>0.09859154929577464</v>
       </c>
       <c r="S7">
-        <v>0.5163934426229508</v>
+        <v>0.5140845070422535</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08139534883720931</v>
+        <v>0.08436724565756824</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02325581395348837</v>
+        <v>0.02233250620347394</v>
       </c>
       <c r="E8">
-        <v>0.005813953488372093</v>
+        <v>0.004962779156327543</v>
       </c>
       <c r="F8">
-        <v>0.0755813953488372</v>
+        <v>0.08933002481389578</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.09883720930232558</v>
+        <v>0.09925558312655088</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01453488372093023</v>
+        <v>0.01240694789081886</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.188953488372093</v>
+        <v>0.1861042183622829</v>
       </c>
       <c r="R8">
-        <v>0.1046511627906977</v>
+        <v>0.1042183622828784</v>
       </c>
       <c r="S8">
-        <v>0.4069767441860465</v>
+        <v>0.3970223325062035</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.09558823529411764</v>
+        <v>0.08280254777070063</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.007352941176470588</v>
+        <v>0.01273885350318471</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.08823529411764706</v>
+        <v>0.08917197452229299</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.05882352941176471</v>
+        <v>0.05732484076433121</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02205882352941177</v>
+        <v>0.02547770700636943</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2205882352941176</v>
+        <v>0.2229299363057325</v>
       </c>
       <c r="R9">
-        <v>0.125</v>
+        <v>0.1273885350318471</v>
       </c>
       <c r="S9">
-        <v>0.3823529411764706</v>
+        <v>0.3821656050955414</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.09302325581395349</v>
+        <v>0.1027216856892011</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01585623678646934</v>
+        <v>0.01668129938542581</v>
       </c>
       <c r="E10">
-        <v>0.003171247357293869</v>
+        <v>0.002633889376646181</v>
       </c>
       <c r="F10">
-        <v>0.07399577167019028</v>
+        <v>0.06672519754170325</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.0824524312896406</v>
+        <v>0.09218612818261633</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01585623678646934</v>
+        <v>0.01492537313432836</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2124735729386892</v>
+        <v>0.2159789288849868</v>
       </c>
       <c r="R10">
-        <v>0.105708245243129</v>
+        <v>0.1088674275680421</v>
       </c>
       <c r="S10">
-        <v>0.3974630021141649</v>
+        <v>0.3792800702370501</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1851851851851852</v>
+        <v>0.1814159292035398</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1005291005291005</v>
+        <v>0.1150442477876106</v>
       </c>
       <c r="K11">
-        <v>0.2275132275132275</v>
+        <v>0.2300884955752212</v>
       </c>
       <c r="L11">
-        <v>0.4814814814814815</v>
+        <v>0.4690265486725664</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.005291005291005291</v>
+        <v>0.004424778761061947</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.8387096774193549</v>
+        <v>0.8165137614678899</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.09677419354838709</v>
+        <v>0.1192660550458716</v>
       </c>
       <c r="K12">
-        <v>0.01075268817204301</v>
+        <v>0.009174311926605505</v>
       </c>
       <c r="L12">
-        <v>0.02150537634408602</v>
+        <v>0.02752293577981652</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03225806451612903</v>
+        <v>0.02752293577981652</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.45</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.55</v>
+        <v>0.4583333333333333</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01886792452830189</v>
+        <v>0.02659574468085106</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1446540880503145</v>
+        <v>0.148936170212766</v>
       </c>
       <c r="I15">
-        <v>0.119496855345912</v>
+        <v>0.1170212765957447</v>
       </c>
       <c r="J15">
-        <v>0.3396226415094339</v>
+        <v>0.3457446808510639</v>
       </c>
       <c r="K15">
-        <v>0.06918238993710692</v>
+        <v>0.05851063829787234</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.006289308176100629</v>
+        <v>0.01063829787234043</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.06918238993710692</v>
+        <v>0.07446808510638298</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2327044025157233</v>
+        <v>0.2180851063829787</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01612903225806452</v>
+        <v>0.01273885350318471</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1612903225806452</v>
+        <v>0.1528662420382166</v>
       </c>
       <c r="I16">
-        <v>0.08870967741935484</v>
+        <v>0.08280254777070063</v>
       </c>
       <c r="J16">
-        <v>0.4032258064516129</v>
+        <v>0.4076433121019108</v>
       </c>
       <c r="K16">
-        <v>0.1290322580645161</v>
+        <v>0.1337579617834395</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.008064516129032258</v>
+        <v>0.006369426751592357</v>
       </c>
       <c r="N16">
-        <v>0.008064516129032258</v>
+        <v>0.006369426751592357</v>
       </c>
       <c r="O16">
-        <v>0.0564516129032258</v>
+        <v>0.05732484076433121</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1290322580645161</v>
+        <v>0.1401273885350318</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.008695652173913044</v>
+        <v>0.007263922518159807</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2</v>
+        <v>0.198547215496368</v>
       </c>
       <c r="I17">
-        <v>0.07246376811594203</v>
+        <v>0.07263922518159806</v>
       </c>
       <c r="J17">
-        <v>0.463768115942029</v>
+        <v>0.4745762711864407</v>
       </c>
       <c r="K17">
-        <v>0.08985507246376812</v>
+        <v>0.08232445520581114</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01449275362318841</v>
+        <v>0.01452784503631961</v>
       </c>
       <c r="N17">
-        <v>0.002898550724637681</v>
+        <v>0.002421307506053269</v>
       </c>
       <c r="O17">
-        <v>0.05797101449275362</v>
+        <v>0.06053268765133172</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.08985507246376812</v>
+        <v>0.08716707021791767</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.0111731843575419</v>
+        <v>0.009259259259259259</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1508379888268156</v>
+        <v>0.1527777777777778</v>
       </c>
       <c r="I18">
-        <v>0.0782122905027933</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="J18">
-        <v>0.4860335195530726</v>
+        <v>0.4861111111111111</v>
       </c>
       <c r="K18">
-        <v>0.09497206703910614</v>
+        <v>0.09722222222222222</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01675977653631285</v>
+        <v>0.01388888888888889</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.0446927374301676</v>
+        <v>0.04629629629629629</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1173184357541899</v>
+        <v>0.1203703703703704</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01311475409836066</v>
+        <v>0.01318267419962335</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2251366120218579</v>
+        <v>0.2231638418079096</v>
       </c>
       <c r="I19">
-        <v>0.07431693989071038</v>
+        <v>0.07250470809792843</v>
       </c>
       <c r="J19">
-        <v>0.4262295081967213</v>
+        <v>0.423728813559322</v>
       </c>
       <c r="K19">
-        <v>0.073224043715847</v>
+        <v>0.07721280602636535</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01092896174863388</v>
+        <v>0.01035781544256121</v>
       </c>
       <c r="N19">
-        <v>0.001092896174863388</v>
+        <v>0.0009416195856873823</v>
       </c>
       <c r="O19">
-        <v>0.07978142076502732</v>
+        <v>0.07909604519774012</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.09617486338797815</v>
+        <v>0.09981167608286252</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Vermont_A.xlsx
+++ b/team_specific_matrix/Vermont_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2033898305084746</v>
+        <v>0.1975806451612903</v>
       </c>
       <c r="C2">
-        <v>0.559322033898305</v>
+        <v>0.5685483870967742</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.008474576271186441</v>
+        <v>0.008064516129032258</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1483050847457627</v>
+        <v>0.1491935483870968</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.08050847457627118</v>
+        <v>0.07661290322580645</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.007407407407407408</v>
+        <v>0.00684931506849315</v>
       </c>
       <c r="C3">
-        <v>0.02962962962962963</v>
+        <v>0.0410958904109589</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04444444444444445</v>
+        <v>0.0410958904109589</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7481481481481481</v>
+        <v>0.7397260273972602</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1703703703703704</v>
+        <v>0.1712328767123288</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.05882352941176471</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6764705882352942</v>
+        <v>0.6410256410256411</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2647058823529412</v>
+        <v>0.3076923076923077</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.0505050505050505</v>
+        <v>0.04672897196261682</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0101010101010101</v>
+        <v>0.01869158878504673</v>
       </c>
       <c r="E6">
-        <v>0.005050505050505051</v>
+        <v>0.004672897196261682</v>
       </c>
       <c r="F6">
-        <v>0.05555555555555555</v>
+        <v>0.0514018691588785</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2222222222222222</v>
+        <v>0.2102803738317757</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01515151515151515</v>
+        <v>0.01869158878504673</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1717171717171717</v>
+        <v>0.1682242990654206</v>
       </c>
       <c r="R6">
-        <v>0.101010101010101</v>
+        <v>0.1121495327102804</v>
       </c>
       <c r="S6">
-        <v>0.3686868686868687</v>
+        <v>0.3691588785046729</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.07042253521126761</v>
+        <v>0.07741935483870968</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01408450704225352</v>
+        <v>0.01290322580645161</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.04225352112676056</v>
+        <v>0.03870967741935484</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.09154929577464789</v>
+        <v>0.09677419354838709</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -838,13 +838,13 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1690140845070423</v>
+        <v>0.1548387096774194</v>
       </c>
       <c r="R7">
-        <v>0.09859154929577464</v>
+        <v>0.1032258064516129</v>
       </c>
       <c r="S7">
-        <v>0.5140845070422535</v>
+        <v>0.5161290322580645</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08436724565756824</v>
+        <v>0.07943925233644859</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02233250620347394</v>
+        <v>0.02336448598130841</v>
       </c>
       <c r="E8">
-        <v>0.004962779156327543</v>
+        <v>0.004672897196261682</v>
       </c>
       <c r="F8">
-        <v>0.08933002481389578</v>
+        <v>0.08644859813084112</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.09925558312655088</v>
+        <v>0.102803738317757</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01240694789081886</v>
+        <v>0.01168224299065421</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1861042183622829</v>
+        <v>0.1869158878504673</v>
       </c>
       <c r="R8">
-        <v>0.1042183622828784</v>
+        <v>0.1004672897196262</v>
       </c>
       <c r="S8">
-        <v>0.3970223325062035</v>
+        <v>0.4042056074766355</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.08280254777070063</v>
+        <v>0.07784431137724551</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01273885350318471</v>
+        <v>0.01197604790419162</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.08917197452229299</v>
+        <v>0.08982035928143713</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.05732484076433121</v>
+        <v>0.05389221556886228</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02547770700636943</v>
+        <v>0.02395209580838323</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2229299363057325</v>
+        <v>0.2215568862275449</v>
       </c>
       <c r="R9">
-        <v>0.1273885350318471</v>
+        <v>0.1197604790419162</v>
       </c>
       <c r="S9">
-        <v>0.3821656050955414</v>
+        <v>0.4011976047904192</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1027216856892011</v>
+        <v>0.1017087062652563</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01668129938542581</v>
+        <v>0.01708706265256306</v>
       </c>
       <c r="E10">
-        <v>0.002633889376646181</v>
+        <v>0.002441008950366151</v>
       </c>
       <c r="F10">
-        <v>0.06672519754170325</v>
+        <v>0.06916192026037429</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.09218612818261633</v>
+        <v>0.09601301871440195</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01492537313432836</v>
+        <v>0.01464605370219691</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2159789288849868</v>
+        <v>0.2131814483319772</v>
       </c>
       <c r="R10">
-        <v>0.1088674275680421</v>
+        <v>0.1082180634662327</v>
       </c>
       <c r="S10">
-        <v>0.3792800702370501</v>
+        <v>0.3775427176566314</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1814159292035398</v>
+        <v>0.1862348178137652</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1150442477876106</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="K11">
-        <v>0.2300884955752212</v>
+        <v>0.2388663967611336</v>
       </c>
       <c r="L11">
-        <v>0.4690265486725664</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.004424778761061947</v>
+        <v>0.008097165991902834</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.8165137614678899</v>
+        <v>0.8205128205128205</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1192660550458716</v>
+        <v>0.1196581196581197</v>
       </c>
       <c r="K12">
-        <v>0.009174311926605505</v>
+        <v>0.008547008547008548</v>
       </c>
       <c r="L12">
-        <v>0.02752293577981652</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02752293577981652</v>
+        <v>0.02564102564102564</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.5416666666666666</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.4583333333333333</v>
+        <v>0.44</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02659574468085106</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.148936170212766</v>
+        <v>0.1435897435897436</v>
       </c>
       <c r="I15">
-        <v>0.1170212765957447</v>
+        <v>0.1128205128205128</v>
       </c>
       <c r="J15">
-        <v>0.3457446808510639</v>
+        <v>0.3538461538461539</v>
       </c>
       <c r="K15">
-        <v>0.05851063829787234</v>
+        <v>0.05641025641025641</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01063829787234043</v>
+        <v>0.01025641025641026</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.07446808510638298</v>
+        <v>0.07179487179487179</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2180851063829787</v>
+        <v>0.2256410256410256</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01273885350318471</v>
+        <v>0.01197604790419162</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1528662420382166</v>
+        <v>0.1437125748502994</v>
       </c>
       <c r="I16">
-        <v>0.08280254777070063</v>
+        <v>0.07784431137724551</v>
       </c>
       <c r="J16">
-        <v>0.4076433121019108</v>
+        <v>0.4131736526946108</v>
       </c>
       <c r="K16">
-        <v>0.1337579617834395</v>
+        <v>0.1437125748502994</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.006369426751592357</v>
+        <v>0.005988023952095809</v>
       </c>
       <c r="N16">
-        <v>0.006369426751592357</v>
+        <v>0.005988023952095809</v>
       </c>
       <c r="O16">
-        <v>0.05732484076433121</v>
+        <v>0.05988023952095808</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1401273885350318</v>
+        <v>0.1377245508982036</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.007263922518159807</v>
+        <v>0.00684931506849315</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.198547215496368</v>
+        <v>0.1986301369863014</v>
       </c>
       <c r="I17">
-        <v>0.07263922518159806</v>
+        <v>0.07534246575342465</v>
       </c>
       <c r="J17">
-        <v>0.4745762711864407</v>
+        <v>0.4726027397260274</v>
       </c>
       <c r="K17">
-        <v>0.08232445520581114</v>
+        <v>0.07990867579908675</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01452784503631961</v>
+        <v>0.0136986301369863</v>
       </c>
       <c r="N17">
-        <v>0.002421307506053269</v>
+        <v>0.00228310502283105</v>
       </c>
       <c r="O17">
-        <v>0.06053268765133172</v>
+        <v>0.0593607305936073</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.08716707021791767</v>
+        <v>0.091324200913242</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.009259259259259259</v>
+        <v>0.008510638297872341</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1527777777777778</v>
+        <v>0.1574468085106383</v>
       </c>
       <c r="I18">
-        <v>0.07407407407407407</v>
+        <v>0.06808510638297872</v>
       </c>
       <c r="J18">
-        <v>0.4861111111111111</v>
+        <v>0.4936170212765957</v>
       </c>
       <c r="K18">
-        <v>0.09722222222222222</v>
+        <v>0.09787234042553192</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01388888888888889</v>
+        <v>0.01276595744680851</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.00425531914893617</v>
       </c>
       <c r="O18">
-        <v>0.04629629629629629</v>
+        <v>0.0425531914893617</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1203703703703704</v>
+        <v>0.1148936170212766</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01318267419962335</v>
+        <v>0.01306620209059233</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2231638418079096</v>
+        <v>0.2212543554006969</v>
       </c>
       <c r="I19">
-        <v>0.07250470809792843</v>
+        <v>0.07317073170731707</v>
       </c>
       <c r="J19">
-        <v>0.423728813559322</v>
+        <v>0.4268292682926829</v>
       </c>
       <c r="K19">
-        <v>0.07721280602636535</v>
+        <v>0.07752613240418119</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01035781544256121</v>
+        <v>0.009581881533101045</v>
       </c>
       <c r="N19">
-        <v>0.0009416195856873823</v>
+        <v>0.0008710801393728223</v>
       </c>
       <c r="O19">
-        <v>0.07909604519774012</v>
+        <v>0.07578397212543554</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.09981167608286252</v>
+        <v>0.1019163763066202</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Vermont_A.xlsx
+++ b/team_specific_matrix/Vermont_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1975806451612903</v>
+        <v>0.196969696969697</v>
       </c>
       <c r="C2">
-        <v>0.5685483870967742</v>
+        <v>0.5681818181818182</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.008064516129032258</v>
+        <v>0.007575757575757576</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1491935483870968</v>
+        <v>0.1515151515151515</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.07661290322580645</v>
+        <v>0.07575757575757576</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.00684931506849315</v>
+        <v>0.00641025641025641</v>
       </c>
       <c r="C3">
-        <v>0.0410958904109589</v>
+        <v>0.04487179487179487</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0410958904109589</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7397260273972602</v>
+        <v>0.7115384615384616</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1712328767123288</v>
+        <v>0.1858974358974359</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.05128205128205128</v>
+        <v>0.05</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6410256410256411</v>
+        <v>0.625</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3076923076923077</v>
+        <v>0.325</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.04672897196261682</v>
+        <v>0.05</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01869158878504673</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="E6">
-        <v>0.004672897196261682</v>
+        <v>0.004545454545454545</v>
       </c>
       <c r="F6">
-        <v>0.0514018691588785</v>
+        <v>0.05</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2102803738317757</v>
+        <v>0.2090909090909091</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01869158878504673</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1682242990654206</v>
+        <v>0.1636363636363636</v>
       </c>
       <c r="R6">
-        <v>0.1121495327102804</v>
+        <v>0.1136363636363636</v>
       </c>
       <c r="S6">
-        <v>0.3691588785046729</v>
+        <v>0.3727272727272727</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.07741935483870968</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01290322580645161</v>
+        <v>0.0124223602484472</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.03870967741935484</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.09677419354838709</v>
+        <v>0.09316770186335403</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -838,13 +838,13 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1548387096774194</v>
+        <v>0.15527950310559</v>
       </c>
       <c r="R7">
-        <v>0.1032258064516129</v>
+        <v>0.1055900621118012</v>
       </c>
       <c r="S7">
-        <v>0.5161290322580645</v>
+        <v>0.5031055900621118</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.07943925233644859</v>
+        <v>0.08390022675736962</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02336448598130841</v>
+        <v>0.02267573696145125</v>
       </c>
       <c r="E8">
-        <v>0.004672897196261682</v>
+        <v>0.00453514739229025</v>
       </c>
       <c r="F8">
-        <v>0.08644859813084112</v>
+        <v>0.08390022675736962</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.102803738317757</v>
+        <v>0.09977324263038549</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01168224299065421</v>
+        <v>0.01360544217687075</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1869158878504673</v>
+        <v>0.1836734693877551</v>
       </c>
       <c r="R8">
-        <v>0.1004672897196262</v>
+        <v>0.09977324263038549</v>
       </c>
       <c r="S8">
-        <v>0.4042056074766355</v>
+        <v>0.4081632653061225</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.07784431137724551</v>
+        <v>0.07471264367816093</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01197604790419162</v>
+        <v>0.01149425287356322</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.08982035928143713</v>
+        <v>0.09770114942528736</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.05389221556886228</v>
+        <v>0.05747126436781609</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02395209580838323</v>
+        <v>0.02298850574712644</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2215568862275449</v>
+        <v>0.2241379310344828</v>
       </c>
       <c r="R9">
-        <v>0.1197604790419162</v>
+        <v>0.1149425287356322</v>
       </c>
       <c r="S9">
-        <v>0.4011976047904192</v>
+        <v>0.396551724137931</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1017087062652563</v>
+        <v>0.103448275862069</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01708706265256306</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="E10">
-        <v>0.002441008950366151</v>
+        <v>0.002351097178683386</v>
       </c>
       <c r="F10">
-        <v>0.06916192026037429</v>
+        <v>0.06739811912225706</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.09601301871440195</v>
+        <v>0.0932601880877743</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01464605370219691</v>
+        <v>0.01489028213166144</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2131814483319772</v>
+        <v>0.2100313479623825</v>
       </c>
       <c r="R10">
-        <v>0.1082180634662327</v>
+        <v>0.109717868338558</v>
       </c>
       <c r="S10">
-        <v>0.3775427176566314</v>
+        <v>0.3816614420062696</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1862348178137652</v>
+        <v>0.1857707509881423</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1052631578947368</v>
+        <v>0.1027667984189723</v>
       </c>
       <c r="K11">
-        <v>0.2388663967611336</v>
+        <v>0.2371541501976284</v>
       </c>
       <c r="L11">
-        <v>0.4615384615384616</v>
+        <v>0.466403162055336</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.008097165991902834</v>
+        <v>0.007905138339920948</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.8205128205128205</v>
+        <v>0.8264462809917356</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1196581196581197</v>
+        <v>0.115702479338843</v>
       </c>
       <c r="K12">
-        <v>0.008547008547008548</v>
+        <v>0.008264462809917356</v>
       </c>
       <c r="L12">
-        <v>0.02564102564102564</v>
+        <v>0.02479338842975207</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02564102564102564</v>
+        <v>0.02479338842975207</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.5600000000000001</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.44</v>
+        <v>0.4230769230769231</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02564102564102564</v>
+        <v>0.02450980392156863</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1435897435897436</v>
+        <v>0.1372549019607843</v>
       </c>
       <c r="I15">
-        <v>0.1128205128205128</v>
+        <v>0.107843137254902</v>
       </c>
       <c r="J15">
-        <v>0.3538461538461539</v>
+        <v>0.357843137254902</v>
       </c>
       <c r="K15">
-        <v>0.05641025641025641</v>
+        <v>0.05392156862745098</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01025641025641026</v>
+        <v>0.009803921568627451</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.07179487179487179</v>
+        <v>0.07352941176470588</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2256410256410256</v>
+        <v>0.2352941176470588</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01197604790419162</v>
+        <v>0.01162790697674419</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1437125748502994</v>
+        <v>0.1395348837209302</v>
       </c>
       <c r="I16">
-        <v>0.07784431137724551</v>
+        <v>0.08139534883720931</v>
       </c>
       <c r="J16">
-        <v>0.4131736526946108</v>
+        <v>0.4069767441860465</v>
       </c>
       <c r="K16">
-        <v>0.1437125748502994</v>
+        <v>0.1395348837209302</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.005988023952095809</v>
+        <v>0.005813953488372093</v>
       </c>
       <c r="N16">
-        <v>0.005988023952095809</v>
+        <v>0.01162790697674419</v>
       </c>
       <c r="O16">
-        <v>0.05988023952095808</v>
+        <v>0.06395348837209303</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1377245508982036</v>
+        <v>0.1395348837209302</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.00684931506849315</v>
+        <v>0.006696428571428571</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1986301369863014</v>
+        <v>0.1941964285714286</v>
       </c>
       <c r="I17">
-        <v>0.07534246575342465</v>
+        <v>0.078125</v>
       </c>
       <c r="J17">
-        <v>0.4726027397260274</v>
+        <v>0.4754464285714285</v>
       </c>
       <c r="K17">
-        <v>0.07990867579908675</v>
+        <v>0.078125</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.0136986301369863</v>
+        <v>0.01339285714285714</v>
       </c>
       <c r="N17">
-        <v>0.00228310502283105</v>
+        <v>0.002232142857142857</v>
       </c>
       <c r="O17">
-        <v>0.0593607305936073</v>
+        <v>0.05803571428571429</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.091324200913242</v>
+        <v>0.09375</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.008510638297872341</v>
+        <v>0.00816326530612245</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1574468085106383</v>
+        <v>0.1591836734693877</v>
       </c>
       <c r="I18">
-        <v>0.06808510638297872</v>
+        <v>0.06938775510204082</v>
       </c>
       <c r="J18">
-        <v>0.4936170212765957</v>
+        <v>0.4938775510204081</v>
       </c>
       <c r="K18">
-        <v>0.09787234042553192</v>
+        <v>0.09795918367346938</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01276595744680851</v>
+        <v>0.01224489795918367</v>
       </c>
       <c r="N18">
-        <v>0.00425531914893617</v>
+        <v>0.004081632653061225</v>
       </c>
       <c r="O18">
-        <v>0.0425531914893617</v>
+        <v>0.04081632653061224</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1148936170212766</v>
+        <v>0.1142857142857143</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01306620209059233</v>
+        <v>0.01335559265442404</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2212543554006969</v>
+        <v>0.2220367278797997</v>
       </c>
       <c r="I19">
-        <v>0.07317073170731707</v>
+        <v>0.07262103505843072</v>
       </c>
       <c r="J19">
-        <v>0.4268292682926829</v>
+        <v>0.4298831385642738</v>
       </c>
       <c r="K19">
-        <v>0.07752613240418119</v>
+        <v>0.07762938230383973</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.009581881533101045</v>
+        <v>0.01001669449081803</v>
       </c>
       <c r="N19">
-        <v>0.0008710801393728223</v>
+        <v>0.0008347245409015025</v>
       </c>
       <c r="O19">
-        <v>0.07578397212543554</v>
+        <v>0.07595993322203673</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1019163763066202</v>
+        <v>0.09766277128547579</v>
       </c>
     </row>
   </sheetData>
